--- a/筋トレ問題ver1.2.xlsx
+++ b/筋トレ問題ver1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\vscode\個人開発\はたらく部\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAA789E-D5C2-459F-A3F3-0DDBEEA0F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C33FE-D987-404D-8C7F-AA062B0A4508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{E7E6CCB4-9C1B-4779-96E1-A5C7DDE2A52D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{E7E6CCB4-9C1B-4779-96E1-A5C7DDE2A52D}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーニング編" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="361">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -4702,10 +4702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2442A296-647F-4DFA-8FFF-AD178EF1EAD5}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5020,104 +5020,119 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -5125,101 +5140,81 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5234,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB3321-FEAA-4EC5-B055-18415F8B7771}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
